--- a/alcaldes 2021/alcaldes2021.xlsx
+++ b/alcaldes 2021/alcaldes2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\K. Bunker\Tresquintos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\alcaldes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CBFBD3-21B6-408B-8FA5-894A6E96AD0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4601E-A29B-44D7-8F9C-DD8854B85DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53EA5F0D-1430-4AF9-B9FA-A38718FD67FE}"/>
   </bookViews>
@@ -5822,8 +5822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5195CED-606A-4AF6-99AD-39BD24CE61A5}">
   <dimension ref="A1:H1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="D483" sqref="D483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/alcaldes 2021/alcaldes2021.xlsx
+++ b/alcaldes 2021/alcaldes2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\alcaldes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC262B-49F0-4222-A409-5009BAB8D83F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06233C0-A17A-4916-BC7A-2E4873F21A4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53EA5F0D-1430-4AF9-B9FA-A38718FD67FE}"/>
   </bookViews>
@@ -5962,7 +5962,7 @@
   <dimension ref="A1:H1448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
